--- a/data/trans_orig/P80_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P80_2023-Provincia-trans_orig.xlsx
@@ -741,16 +741,16 @@
         <v>317983</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>314521</v>
+        <v>313978</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9972971585108287</v>
+        <v>0.9972971585108289</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9864386487624415</v>
+        <v>0.9847359738289305</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>314973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>309945</v>
+        <v>310062</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>316061</v>
@@ -771,7 +771,7 @@
         <v>0.9965588958999839</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9806483033976992</v>
+        <v>0.9810185149808959</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>632957</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>628531</v>
+        <v>627950</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>634906</v>
@@ -792,7 +792,7 @@
         <v>0.9969296461808563</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9899596271148945</v>
+        <v>0.9890447789998855</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -956,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4324</v>
+        <v>4867</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.002702841489171369</v>
+        <v>0.00270284148917137</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0135613512375585</v>
+        <v>0.01526402617106908</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6116</v>
+        <v>5999</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003441104100016069</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01935169660230099</v>
+        <v>0.01898148501910465</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6375</v>
+        <v>6956</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003070353819143785</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01004037288510553</v>
+        <v>0.01095522100011458</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>524318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>511370</v>
+        <v>509460</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>529263</v>
+        <v>529274</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9880723556345099</v>
+        <v>0.9880723556345101</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9636717912218588</v>
+        <v>0.9600727761657751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9973919786368387</v>
+        <v>0.9974121169376009</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>708</v>
@@ -1120,19 +1120,19 @@
         <v>539089</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>533700</v>
+        <v>533544</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>542541</v>
+        <v>542599</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9888359302156595</v>
+        <v>0.9888359302156597</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9789524563402658</v>
+        <v>0.9786659325165836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9951681474093929</v>
+        <v>0.9952751916839562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1087</v>
@@ -1141,19 +1141,19 @@
         <v>1063406</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1047757</v>
+        <v>1048477</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1069795</v>
+        <v>1069644</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9884592985766019</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9739133830300069</v>
+        <v>0.9745819944430517</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9943982031457154</v>
+        <v>0.9942578439647327</v>
       </c>
     </row>
     <row r="11">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14539</v>
+        <v>19673</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006663095446577455</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02739837116834847</v>
+        <v>0.03707373051811542</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6395</v>
+        <v>6911</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003421884470629221</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01172933403198602</v>
+        <v>0.01267688129727791</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1212,19 +1212,19 @@
         <v>5401</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1096</v>
+        <v>794</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22370</v>
+        <v>21168</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00502060531930572</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001018399930831323</v>
+        <v>0.0007376265275444054</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02079347993089032</v>
+        <v>0.01967603407223092</v>
       </c>
     </row>
     <row r="12">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5246</v>
+        <v>5230</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002742601584038276</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.009623351227087219</v>
+        <v>0.009592411553368778</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5171</v>
+        <v>4495</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.001389818823350374</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.004806246921128727</v>
+        <v>0.004178068864572985</v>
       </c>
     </row>
     <row r="13">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6982</v>
+        <v>6735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002683932124352166</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01315754934157891</v>
+        <v>0.01269162776859548</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3238</v>
+        <v>3600</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001290292874603353</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.005940126515128919</v>
+        <v>0.006603250943645458</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8211</v>
+        <v>7295</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001977702654664176</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007631951905468147</v>
+        <v>0.006781195474268881</v>
       </c>
     </row>
     <row r="14">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7150</v>
+        <v>7827</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00258061679456036</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01347440344023468</v>
+        <v>0.01475079051334336</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6478</v>
+        <v>6284</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0037092908550696</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01188237460995247</v>
+        <v>0.01152749097801666</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1417,19 +1417,19 @@
         <v>3392</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9129</v>
+        <v>9456</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003152574626077877</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0008440152879084807</v>
+        <v>0.0008448251000760119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008485331834299715</v>
+        <v>0.008789792325154878</v>
       </c>
     </row>
     <row r="15">
@@ -1521,19 +1521,19 @@
         <v>306078</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>296721</v>
+        <v>297786</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>311213</v>
+        <v>310670</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9686232642985477</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9390127172016819</v>
+        <v>0.9423824526127467</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9848727876279713</v>
+        <v>0.9831545067220585</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>526</v>
@@ -1542,19 +1542,19 @@
         <v>348816</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>342681</v>
+        <v>342695</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>352683</v>
+        <v>352971</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9787731421432422</v>
+        <v>0.9787731421432421</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9615567607753414</v>
+        <v>0.9615971626354519</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9896228962422405</v>
+        <v>0.9904315433140682</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>876</v>
@@ -1563,19 +1563,19 @@
         <v>654895</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>645348</v>
+        <v>644114</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>661393</v>
+        <v>660891</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9740030424203223</v>
+        <v>0.9740030424203221</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9598039253879722</v>
+        <v>0.9579685961086941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9836670588818633</v>
+        <v>0.9829206469856129</v>
       </c>
     </row>
     <row r="17">
@@ -1592,19 +1592,19 @@
         <v>5752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1998</v>
+        <v>2814</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11932</v>
+        <v>12179</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01820411308552043</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006322845024615735</v>
+        <v>0.008903734561651763</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0377593380723465</v>
+        <v>0.03854081098621362</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1613,19 +1613,19 @@
         <v>3715</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8121</v>
+        <v>8868</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01042557138125228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003781780488097985</v>
+        <v>0.003767647155158746</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02278741943873112</v>
+        <v>0.02488235644855328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1634,19 +1634,19 @@
         <v>9468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4902</v>
+        <v>5109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16129</v>
+        <v>17049</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01408122322219014</v>
+        <v>0.01408122322219015</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007290366255418594</v>
+        <v>0.007598643883042379</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02398774911764372</v>
+        <v>0.02535670990786308</v>
       </c>
     </row>
     <row r="18">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12288</v>
+        <v>9949</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007175647479403936</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03888773743019695</v>
+        <v>0.0314849558293246</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1684,19 +1684,19 @@
         <v>2343</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6323</v>
+        <v>5744</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006573169621877231</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001703454721637648</v>
+        <v>0.001649279024401397</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01774231318666076</v>
+        <v>0.01611837859241984</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -1705,19 +1705,19 @@
         <v>4610</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11362</v>
+        <v>11096</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.00685631386314077</v>
+        <v>0.006856313863140769</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002577828134505348</v>
+        <v>0.002584043586026606</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01689838449816661</v>
+        <v>0.01650314236321331</v>
       </c>
     </row>
     <row r="19">
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6665</v>
+        <v>6493</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005996975136527839</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02109160206801235</v>
+        <v>0.0205485619641272</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7439</v>
+        <v>7562</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004228116853628384</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02087315696581801</v>
+        <v>0.0212199330491385</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1776,19 +1776,19 @@
         <v>3402</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9970</v>
+        <v>10191</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.005059420494346986</v>
+        <v>0.005059420494346985</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001353597822429509</v>
+        <v>0.001379406148050447</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01482835242320443</v>
+        <v>0.01515693765654392</v>
       </c>
     </row>
     <row r="20">
@@ -1927,19 +1927,19 @@
         <v>369529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>361736</v>
+        <v>361682</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>372488</v>
+        <v>372483</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.990308645622469</v>
+        <v>0.9903086456224691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9694257734590305</v>
+        <v>0.9692802975013305</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9982382661256135</v>
+        <v>0.9982264042922157</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>594</v>
@@ -1948,19 +1948,19 @@
         <v>417574</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>410626</v>
+        <v>410927</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>420532</v>
+        <v>420537</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9896034352893761</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9731366393697668</v>
+        <v>0.9738508200447248</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9966132671264341</v>
+        <v>0.9966251829971575</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>883</v>
@@ -1969,19 +1969,19 @@
         <v>787104</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>777032</v>
+        <v>779110</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>791382</v>
+        <v>791904</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9899343919914582</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9772673718686464</v>
+        <v>0.9798807090342418</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9953150807754961</v>
+        <v>0.9959721514352666</v>
       </c>
     </row>
     <row r="23">
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6009</v>
+        <v>5756</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003067868683768864</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01610311952751873</v>
+        <v>0.01542696272097034</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4875</v>
+        <v>4667</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003106037841132548</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01155292697565369</v>
+        <v>0.01106033297881172</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2040,19 +2040,19 @@
         <v>2455</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7397</v>
+        <v>7342</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003088124974786793</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0007303014788865727</v>
+        <v>0.0007049919783816271</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.009303017520784211</v>
+        <v>0.009234008974379178</v>
       </c>
     </row>
     <row r="24">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11574</v>
+        <v>10695</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006623485693762097</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0310167279259367</v>
+        <v>0.02866147886979234</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5569</v>
+        <v>5041</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003222158543601423</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01319707979691482</v>
+        <v>0.01194589915314853</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2111,19 +2111,19 @@
         <v>3831</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13372</v>
+        <v>10967</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.004818408574967919</v>
+        <v>0.004818408574967918</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001167410873900359</v>
+        <v>0.001170417151528016</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01681836056475096</v>
+        <v>0.01379260607489676</v>
       </c>
     </row>
     <row r="25">
@@ -2203,16 +2203,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9239</v>
+        <v>7742</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.004068368325890005</v>
+        <v>0.004068368325890006</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02189477666193868</v>
+        <v>0.01834876034148493</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2224,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8526</v>
+        <v>7152</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.002159074458787099</v>
+        <v>0.002159074458787098</v>
       </c>
       <c r="V26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01072266538682686</v>
+        <v>0.008994740731884263</v>
       </c>
     </row>
     <row r="27">
@@ -2338,16 +2338,16 @@
         <v>222995</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>218514</v>
+        <v>217854</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>224691</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9924531650075982</v>
+        <v>0.9924531650075983</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9725108081358957</v>
+        <v>0.9695718454000563</v>
       </c>
       <c r="P28" s="6" t="n">
         <v>1</v>
@@ -2359,7 +2359,7 @@
         <v>427925</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>423160</v>
+        <v>421134</v>
       </c>
       <c r="T28" s="5" t="n">
         <v>429621</v>
@@ -2368,7 +2368,7 @@
         <v>0.9960530216511903</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9849618899701036</v>
+        <v>0.9802452928893383</v>
       </c>
       <c r="W28" s="6" t="n">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6177</v>
+        <v>6837</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007546834992401762</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02748919186410398</v>
+        <v>0.03042815459994344</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6461</v>
+        <v>8487</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.003946978348809758</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01503811002989662</v>
+        <v>0.01975470711066161</v>
       </c>
     </row>
     <row r="33">
@@ -2667,7 +2667,7 @@
         <v>267751</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>263825</v>
+        <v>263258</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>269884</v>
@@ -2676,10 +2676,10 @@
         <v>0.989079296671829</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9745784474284318</v>
+        <v>0.9724849222190225</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9969602490524038</v>
+        <v>0.9969605859341413</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>457</v>
@@ -2688,19 +2688,19 @@
         <v>262191</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>259317</v>
+        <v>259499</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>263396</v>
+        <v>263405</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9940893418816753</v>
+        <v>0.9940893418816749</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9831929448193784</v>
+        <v>0.9838823494855831</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9986570492544397</v>
+        <v>0.998690567446418</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>824</v>
@@ -2709,19 +2709,19 @@
         <v>529942</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>525372</v>
+        <v>525244</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>532555</v>
+        <v>532516</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9915517130048886</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9830015388451556</v>
+        <v>0.9827626629022184</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9964419847067038</v>
+        <v>0.9963682272080506</v>
       </c>
     </row>
     <row r="35">
@@ -2738,19 +2738,19 @@
         <v>2454</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6450</v>
+        <v>7358</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.009066822105249879</v>
+        <v>0.00906682210524988</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.002963506184141492</v>
+        <v>0.002955984745328951</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02382810950249127</v>
+        <v>0.02718145264021155</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2762,16 +2762,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>2960</v>
+        <v>3394</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.002241522659786603</v>
+        <v>0.002241522659786602</v>
       </c>
       <c r="O35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01122225273723098</v>
+        <v>0.01286884870938432</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -2780,19 +2780,19 @@
         <v>3046</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7195</v>
+        <v>7175</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.005698592654181524</v>
+        <v>0.005698592654181525</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001512786705945012</v>
+        <v>0.001519467148979198</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01346260571968962</v>
+        <v>0.01342416156684495</v>
       </c>
     </row>
     <row r="36">
@@ -2825,16 +2825,16 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3044</v>
+        <v>3346</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.003669135458538413</v>
+        <v>0.003669135458538412</v>
       </c>
       <c r="O36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01154288964651842</v>
+        <v>0.01268748671864732</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4188</v>
+        <v>3774</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001810688338315012</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.007836570716091692</v>
+        <v>0.007061216154297476</v>
       </c>
     </row>
     <row r="37">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2584</v>
+        <v>2518</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.001853881222921171</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.009544050247678846</v>
+        <v>0.009302863485819917</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2529</v>
+        <v>2795</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0009390060026147211</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.004731286446452762</v>
+        <v>0.005230236952961376</v>
       </c>
     </row>
     <row r="39">
@@ -3057,19 +3057,19 @@
         <v>691829</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>673522</v>
+        <v>674385</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>703492</v>
+        <v>702871</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.9626137476397205</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.9371418141376818</v>
+        <v>0.9383429315100836</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.9788420431630779</v>
+        <v>0.9779780950867711</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>935</v>
@@ -3078,19 +3078,19 @@
         <v>750441</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>739155</v>
+        <v>739608</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>757403</v>
+        <v>757255</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.9759283181569305</v>
+        <v>0.9759283181569302</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.9612509635569922</v>
+        <v>0.9618399607219429</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9849827335739256</v>
+        <v>0.9847892469634291</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1517</v>
@@ -3099,19 +3099,19 @@
         <v>1442270</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1422259</v>
+        <v>1420403</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1455702</v>
+        <v>1456537</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.9694959158076683</v>
+        <v>0.969495915807668</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9560447677898251</v>
+        <v>0.9547973576058054</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.9785254594454651</v>
+        <v>0.9790862296047479</v>
       </c>
     </row>
     <row r="41">
@@ -3128,19 +3128,19 @@
         <v>10735</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4050</v>
+        <v>4325</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>26551</v>
+        <v>25720</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.01493709241323143</v>
+        <v>0.01493709241323142</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005635670168763787</v>
+        <v>0.00601767417283393</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03694263347817173</v>
+        <v>0.03578627654502631</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3149,19 +3149,19 @@
         <v>5867</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2306</v>
+        <v>2387</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13081</v>
+        <v>12442</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.007630138559301811</v>
+        <v>0.007630138559301809</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002998411478674076</v>
+        <v>0.003104327275670362</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01701145074743642</v>
+        <v>0.01618084632445574</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>13</v>
@@ -3170,19 +3170,19 @@
         <v>16602</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9016</v>
+        <v>8235</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>35112</v>
+        <v>31193</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01116020113812968</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006060699057846114</v>
+        <v>0.005535504334098325</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02360257594448972</v>
+        <v>0.02096824452343065</v>
       </c>
     </row>
     <row r="42">
@@ -3199,19 +3199,19 @@
         <v>9821</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3729</v>
+        <v>3835</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>21334</v>
+        <v>23065</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01366445890989044</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.005188252230019821</v>
+        <v>0.005335682783176377</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02968413890592023</v>
+        <v>0.03209325020605296</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4</v>
@@ -3220,19 +3220,19 @@
         <v>4307</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1343</v>
+        <v>1375</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>14220</v>
+        <v>14235</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.005601496361159933</v>
+        <v>0.005601496361159931</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.001746141623424079</v>
+        <v>0.001788183428665544</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01849300999888514</v>
+        <v>0.01851183239868586</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>10</v>
@@ -3241,19 +3241,19 @@
         <v>14128</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6650</v>
+        <v>6168</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>28343</v>
+        <v>27971</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.009496794311133587</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.004470095631058119</v>
+        <v>0.004145969063118039</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01905216821469877</v>
+        <v>0.0188018469700768</v>
       </c>
     </row>
     <row r="43">
@@ -3273,16 +3273,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>14728</v>
+        <v>13768</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.005671011809435189</v>
+        <v>0.005671011809435188</v>
       </c>
       <c r="H43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02049222095662428</v>
+        <v>0.01915683040708164</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1</v>
@@ -3294,16 +3294,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>3614</v>
+        <v>3932</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.0009004595238595694</v>
+        <v>0.0009004595238595691</v>
       </c>
       <c r="O43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.004699559783457357</v>
+        <v>0.005113095626378656</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3</v>
@@ -3312,19 +3312,19 @@
         <v>4768</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>14479</v>
+        <v>14200</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.003205161105435271</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0004632878151397973</v>
+        <v>0.0004651969858243313</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.009732577467122324</v>
+        <v>0.009545480768381477</v>
       </c>
     </row>
     <row r="44">
@@ -3344,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7801</v>
+        <v>7007</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.003113689227722444</v>
+        <v>0.003113689227722443</v>
       </c>
       <c r="H44" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0108548764686856</v>
+        <v>0.009749310398280767</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>9</v>
@@ -3362,19 +3362,19 @@
         <v>7643</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3725</v>
+        <v>3895</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14852</v>
+        <v>14855</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.009939587398748296</v>
+        <v>0.009939587398748293</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0048438539896367</v>
+        <v>0.005065030494691065</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01931496598904078</v>
+        <v>0.01931846195927722</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>11</v>
@@ -3383,19 +3383,19 @@
         <v>9881</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5079</v>
+        <v>5411</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>18110</v>
+        <v>18471</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.006641927637633283</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003414041026607087</v>
+        <v>0.003637612792060786</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01217355050979429</v>
+        <v>0.01241597543832943</v>
       </c>
     </row>
     <row r="45">
@@ -3487,19 +3487,19 @@
         <v>768428</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>755560</v>
+        <v>754589</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>777909</v>
+        <v>778020</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.9642089233446338</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.9480617178909615</v>
+        <v>0.946844225087547</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.9761056576925671</v>
+        <v>0.9762444103044947</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1044</v>
@@ -3508,19 +3508,19 @@
         <v>815725</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>807591</v>
+        <v>807077</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>822054</v>
+        <v>821363</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.9828486306011861</v>
+        <v>0.9828486306011859</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.9730484180957492</v>
+        <v>0.9724283506260227</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.9904739845962244</v>
+        <v>0.9896412350951448</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1781</v>
@@ -3529,19 +3529,19 @@
         <v>1584154</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1567145</v>
+        <v>1568212</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1596759</v>
+        <v>1596108</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.9737178648292144</v>
+        <v>0.9737178648292145</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.9632626400665122</v>
+        <v>0.9639185959680706</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.9814652743696537</v>
+        <v>0.9810651214403616</v>
       </c>
     </row>
     <row r="47">
@@ -3558,19 +3558,19 @@
         <v>18606</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>11596</v>
+        <v>11313</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>30338</v>
+        <v>31178</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.02334594163927293</v>
+        <v>0.02334594163927294</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01455093478413806</v>
+        <v>0.01419573584753491</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03806777777619495</v>
+        <v>0.03912189901531676</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -3579,19 +3579,19 @@
         <v>5460</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>11505</v>
+        <v>12139</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.006578198056452255</v>
+        <v>0.006578198056452256</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002483384277146246</v>
+        <v>0.002495974272269432</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01386185471381035</v>
+        <v>0.01462564295845925</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>22</v>
@@ -3600,19 +3600,19 @@
         <v>24065</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>15737</v>
+        <v>15958</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>36913</v>
+        <v>36956</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01479197186051205</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.009672820092023641</v>
+        <v>0.009808505775784526</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02268872283936914</v>
+        <v>0.02271514132661096</v>
       </c>
     </row>
     <row r="48">
@@ -3629,19 +3629,19 @@
         <v>8918</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3560</v>
+        <v>3615</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>17206</v>
+        <v>17695</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01119002333999506</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.004467458720025502</v>
+        <v>0.004536380907893583</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02158993100114891</v>
+        <v>0.02220285296331575</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>6</v>
@@ -3650,19 +3650,19 @@
         <v>5919</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2377</v>
+        <v>2354</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>14310</v>
+        <v>13118</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.007131431965988086</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.002864427362918214</v>
+        <v>0.002836546350128465</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.01724209979465281</v>
+        <v>0.0158053747819391</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>13</v>
@@ -3671,19 +3671,19 @@
         <v>14837</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>8251</v>
+        <v>7895</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>26631</v>
+        <v>26070</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.009119555850668442</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.005071288957254306</v>
+        <v>0.004852979391874027</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01636895954607592</v>
+        <v>0.01602421433920339</v>
       </c>
     </row>
     <row r="49">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>6640</v>
+        <v>5072</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.001255111676098268</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.008332277241894864</v>
+        <v>0.006364601447680226</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>5236</v>
+        <v>5142</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.001731968205562736</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.006309304353774829</v>
+        <v>0.006195252252621909</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>3</v>
@@ -3742,19 +3742,19 @@
         <v>2438</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>7212</v>
+        <v>6950</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.001498377343997853</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.0004149455391560753</v>
+        <v>0.0004182250110032306</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.004432681049837474</v>
+        <v>0.004271858969856007</v>
       </c>
     </row>
     <row r="50">
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>4328</v>
+        <v>4902</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.001709771170810911</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.005214413419946254</v>
+        <v>0.005906149483222661</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>5010</v>
+        <v>4919</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0008722301156070552</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.00307928051090295</v>
+        <v>0.003023751736949277</v>
       </c>
     </row>
     <row r="51">
@@ -3909,19 +3909,19 @@
         <v>3450847</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3422523</v>
+        <v>3425809</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>3468620</v>
+        <v>3469201</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.9775995414326285</v>
+        <v>0.9775995414326284</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.9695755160642391</v>
+        <v>0.9705064450269529</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.9826345329267283</v>
+        <v>0.982798949537516</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>5285</v>
@@ -3930,19 +3930,19 @@
         <v>3671806</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>3656159</v>
+        <v>3655325</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>3685058</v>
+        <v>3685651</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.9852089259538656</v>
+        <v>0.9852089259538657</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.9810105273685163</v>
+        <v>0.9807867969010827</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.9887646652867622</v>
+        <v>0.9889239506382119</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>8597</v>
@@ -3951,19 +3951,19 @@
         <v>7122653</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>7091463</v>
+        <v>7093520</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>7144152</v>
+        <v>7145405</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.9815075251108033</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.9772095972819869</v>
+        <v>0.9774930472594223</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.9844701111575729</v>
+        <v>0.9846427935588827</v>
       </c>
     </row>
     <row r="53">
@@ -3980,19 +3980,19 @@
         <v>42228</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>29847</v>
+        <v>28545</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>61235</v>
+        <v>60544</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01196293980676486</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.008455455616585825</v>
+        <v>0.008086588691028537</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01734736081220248</v>
+        <v>0.01715180240209618</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>23</v>
@@ -4001,19 +4001,19 @@
         <v>18810</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>11976</v>
+        <v>11834</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>28968</v>
+        <v>28125</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.005046962074702111</v>
+        <v>0.005046962074702112</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.003213416144292593</v>
+        <v>0.003175260156435167</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.007772715917932716</v>
+        <v>0.007546324902780087</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>56</v>
@@ -4022,19 +4022,19 @@
         <v>61038</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>44960</v>
+        <v>45548</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>79906</v>
+        <v>82262</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.00841107197565579</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.006195462254431882</v>
+        <v>0.00627660604319714</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01101113970426712</v>
+        <v>0.01133578924136771</v>
       </c>
     </row>
     <row r="54">
@@ -4051,19 +4051,19 @@
         <v>23478</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>14520</v>
+        <v>13368</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>40507</v>
+        <v>37308</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.006651006710455616</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.004113375300515328</v>
+        <v>0.003787006319815794</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01147519604403709</v>
+        <v>0.01056918921458934</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>20</v>
@@ -4072,19 +4072,19 @@
         <v>16391</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>9706</v>
+        <v>10366</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>27622</v>
+        <v>27201</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.004398041057117332</v>
+        <v>0.004398041057117333</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.002604322315286583</v>
+        <v>0.002781302815450121</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.007411433846501113</v>
+        <v>0.007298505742108134</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>37</v>
@@ -4093,19 +4093,19 @@
         <v>39869</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>28349</v>
+        <v>27635</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>57240</v>
+        <v>57280</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.005493941644790758</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.003906571270198778</v>
+        <v>0.003808153338492096</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.007887787098319433</v>
+        <v>0.007893175822101174</v>
       </c>
     </row>
     <row r="55">
@@ -4122,19 +4122,19 @@
         <v>8395</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>3358</v>
+        <v>3281</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>19438</v>
+        <v>19154</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.002378307963427006</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.0009512454595470477</v>
+        <v>0.0009294522830991007</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.005506665201839163</v>
+        <v>0.005426307512649558</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>5</v>
@@ -4143,19 +4143,19 @@
         <v>4340</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1441</v>
+        <v>1411</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>10201</v>
+        <v>10290</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.001164532218172593</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.000386772617651455</v>
+        <v>0.0003785491029034801</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.002737090911812391</v>
+        <v>0.002761041713226333</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>11</v>
@@ -4164,19 +4164,19 @@
         <v>12735</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>6783</v>
+        <v>6317</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>24514</v>
+        <v>23339</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.001754944038502432</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.000934638553266774</v>
+        <v>0.0008705555581036832</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.003378087243042077</v>
+        <v>0.003216192735287559</v>
       </c>
     </row>
     <row r="56">
@@ -4193,19 +4193,19 @@
         <v>4971</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1882</v>
+        <v>1606</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>11954</v>
+        <v>11720</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.001408204086723986</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.0005331816162734632</v>
+        <v>0.0004548495407707768</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.003386528741012892</v>
+        <v>0.003320133759682088</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>17</v>
@@ -4214,19 +4214,19 @@
         <v>15584</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>9182</v>
+        <v>9125</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>24088</v>
+        <v>25293</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.004181538696142368</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.002463615356653859</v>
+        <v>0.002448491106981986</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.00646324972179552</v>
+        <v>0.006786529315539046</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>22</v>
@@ -4235,19 +4235,19 @@
         <v>20555</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>12960</v>
+        <v>12662</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>31340</v>
+        <v>32168</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.002832517230247742</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.001785853229352649</v>
+        <v>0.001744882856041986</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.00431870334488344</v>
+        <v>0.004432749182390588</v>
       </c>
     </row>
     <row r="57">
